--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.5262982610707</v>
+        <v>29.947775</v>
       </c>
       <c r="H2">
-        <v>13.5262982610707</v>
+        <v>89.84332500000001</v>
       </c>
       <c r="I2">
-        <v>0.8655800551730141</v>
+        <v>0.9303126840830549</v>
       </c>
       <c r="J2">
-        <v>0.8655800551730141</v>
+        <v>0.930312684083055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>84.69801978425561</v>
+        <v>1.080865</v>
       </c>
       <c r="N2">
-        <v>84.69801978425561</v>
+        <v>3.242595</v>
       </c>
       <c r="O2">
-        <v>0.9216687310445986</v>
+        <v>0.01136162287420497</v>
       </c>
       <c r="P2">
-        <v>0.9216687310445986</v>
+        <v>0.01136162287420497</v>
       </c>
       <c r="Q2">
-        <v>1145.650677723908</v>
+        <v>32.369501825375</v>
       </c>
       <c r="R2">
-        <v>1145.650677723908</v>
+        <v>291.325516428375</v>
       </c>
       <c r="S2">
-        <v>0.7977780710688255</v>
+        <v>0.01056986187164106</v>
       </c>
       <c r="T2">
-        <v>0.7977780710688255</v>
+        <v>0.01056986187164106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.5262982610707</v>
+        <v>29.947775</v>
       </c>
       <c r="H3">
-        <v>13.5262982610707</v>
+        <v>89.84332500000001</v>
       </c>
       <c r="I3">
-        <v>0.8655800551730141</v>
+        <v>0.9303126840830549</v>
       </c>
       <c r="J3">
-        <v>0.8655800551730141</v>
+        <v>0.930312684083055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.19836004438497</v>
+        <v>85.56602466666668</v>
       </c>
       <c r="N3">
-        <v>7.19836004438497</v>
+        <v>256.698074</v>
       </c>
       <c r="O3">
-        <v>0.07833126895540141</v>
+        <v>0.8994360101470458</v>
       </c>
       <c r="P3">
-        <v>0.07833126895540141</v>
+        <v>0.8994360101470458</v>
       </c>
       <c r="Q3">
-        <v>97.36716495092521</v>
+        <v>2562.512054361784</v>
       </c>
       <c r="R3">
-        <v>97.36716495092521</v>
+        <v>23062.60848925605</v>
       </c>
       <c r="S3">
-        <v>0.06780198410418856</v>
+        <v>0.8367567287608519</v>
       </c>
       <c r="T3">
-        <v>0.06780198410418856</v>
+        <v>0.8367567287608521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.924100826037158</v>
+        <v>29.947775</v>
       </c>
       <c r="H4">
-        <v>0.924100826037158</v>
+        <v>89.84332500000001</v>
       </c>
       <c r="I4">
-        <v>0.059135413736127</v>
+        <v>0.9303126840830549</v>
       </c>
       <c r="J4">
-        <v>0.059135413736127</v>
+        <v>0.930312684083055</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.69801978425561</v>
+        <v>8.486086666666667</v>
       </c>
       <c r="N4">
-        <v>84.69801978425561</v>
+        <v>25.45826</v>
       </c>
       <c r="O4">
-        <v>0.9216687310445986</v>
+        <v>0.08920236697874924</v>
       </c>
       <c r="P4">
-        <v>0.9216687310445986</v>
+        <v>0.08920236697874924</v>
       </c>
       <c r="Q4">
-        <v>78.26951004634216</v>
+        <v>254.1394141238334</v>
       </c>
       <c r="R4">
-        <v>78.26951004634216</v>
+        <v>2287.2547271145</v>
       </c>
       <c r="S4">
-        <v>0.0545032617379735</v>
+        <v>0.08298609345056188</v>
       </c>
       <c r="T4">
-        <v>0.0545032617379735</v>
+        <v>0.08298609345056188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.924100826037158</v>
+        <v>0.9818753333333333</v>
       </c>
       <c r="H5">
-        <v>0.924100826037158</v>
+        <v>2.945626</v>
       </c>
       <c r="I5">
-        <v>0.059135413736127</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="J5">
-        <v>0.059135413736127</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>7.19836004438497</v>
+        <v>1.080865</v>
       </c>
       <c r="N5">
-        <v>7.19836004438497</v>
+        <v>3.242595</v>
       </c>
       <c r="O5">
-        <v>0.07833126895540141</v>
+        <v>0.01136162287420497</v>
       </c>
       <c r="P5">
-        <v>0.07833126895540141</v>
+        <v>0.01136162287420497</v>
       </c>
       <c r="Q5">
-        <v>6.652010463129024</v>
+        <v>1.061274682163333</v>
       </c>
       <c r="R5">
-        <v>6.652010463129024</v>
+        <v>9.55147213947</v>
       </c>
       <c r="S5">
-        <v>0.004632151998153503</v>
+        <v>0.0003465461674032495</v>
       </c>
       <c r="T5">
-        <v>0.004632151998153503</v>
+        <v>0.0003465461674032496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.17646082057224</v>
+        <v>0.9818753333333333</v>
       </c>
       <c r="H6">
-        <v>1.17646082057224</v>
+        <v>2.945626</v>
       </c>
       <c r="I6">
-        <v>0.07528453109085897</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="J6">
-        <v>0.07528453109085897</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.69801978425561</v>
+        <v>85.56602466666668</v>
       </c>
       <c r="N6">
-        <v>84.69801978425561</v>
+        <v>256.698074</v>
       </c>
       <c r="O6">
-        <v>0.9216687310445986</v>
+        <v>0.8994360101470458</v>
       </c>
       <c r="P6">
-        <v>0.9216687310445986</v>
+        <v>0.8994360101470458</v>
       </c>
       <c r="Q6">
-        <v>99.64390185622916</v>
+        <v>84.01516899159157</v>
       </c>
       <c r="R6">
-        <v>99.64390185622916</v>
+        <v>756.136520924324</v>
       </c>
       <c r="S6">
-        <v>0.06938739823779962</v>
+        <v>0.02743411795937999</v>
       </c>
       <c r="T6">
-        <v>0.06938739823779962</v>
+        <v>0.02743411795937999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.17646082057224</v>
+        <v>0.9818753333333333</v>
       </c>
       <c r="H7">
-        <v>1.17646082057224</v>
+        <v>2.945626</v>
       </c>
       <c r="I7">
-        <v>0.07528453109085897</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="J7">
-        <v>0.07528453109085897</v>
+        <v>0.03050146719708818</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.19836004438497</v>
+        <v>8.486086666666667</v>
       </c>
       <c r="N7">
-        <v>7.19836004438497</v>
+        <v>25.45826</v>
       </c>
       <c r="O7">
-        <v>0.07833126895540141</v>
+        <v>0.08920236697874924</v>
       </c>
       <c r="P7">
-        <v>0.07833126895540141</v>
+        <v>0.08920236697874924</v>
       </c>
       <c r="Q7">
-        <v>8.468588564591567</v>
+        <v>8.332279174528889</v>
       </c>
       <c r="R7">
-        <v>8.468588564591567</v>
+        <v>74.99051257075999</v>
       </c>
       <c r="S7">
-        <v>0.005897132853059353</v>
+        <v>0.002720803070304942</v>
       </c>
       <c r="T7">
-        <v>0.005897132853059353</v>
+        <v>0.002720803070304942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.261435</v>
+      </c>
+      <c r="H8">
+        <v>3.784305</v>
+      </c>
+      <c r="I8">
+        <v>0.03918584871985675</v>
+      </c>
+      <c r="J8">
+        <v>0.03918584871985676</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.080865</v>
+      </c>
+      <c r="N8">
+        <v>3.242595</v>
+      </c>
+      <c r="O8">
+        <v>0.01136162287420497</v>
+      </c>
+      <c r="P8">
+        <v>0.01136162287420497</v>
+      </c>
+      <c r="Q8">
+        <v>1.363440941275</v>
+      </c>
+      <c r="R8">
+        <v>12.270968471475</v>
+      </c>
+      <c r="S8">
+        <v>0.0004452148351606599</v>
+      </c>
+      <c r="T8">
+        <v>0.0004452148351606601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.261435</v>
+      </c>
+      <c r="H9">
+        <v>3.784305</v>
+      </c>
+      <c r="I9">
+        <v>0.03918584871985675</v>
+      </c>
+      <c r="J9">
+        <v>0.03918584871985676</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>85.56602466666668</v>
+      </c>
+      <c r="N9">
+        <v>256.698074</v>
+      </c>
+      <c r="O9">
+        <v>0.8994360101470458</v>
+      </c>
+      <c r="P9">
+        <v>0.8994360101470458</v>
+      </c>
+      <c r="Q9">
+        <v>107.9359783253967</v>
+      </c>
+      <c r="R9">
+        <v>971.42380492857</v>
+      </c>
+      <c r="S9">
+        <v>0.03524516342681368</v>
+      </c>
+      <c r="T9">
+        <v>0.03524516342681368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.261435</v>
+      </c>
+      <c r="H10">
+        <v>3.784305</v>
+      </c>
+      <c r="I10">
+        <v>0.03918584871985675</v>
+      </c>
+      <c r="J10">
+        <v>0.03918584871985676</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.486086666666667</v>
+      </c>
+      <c r="N10">
+        <v>25.45826</v>
+      </c>
+      <c r="O10">
+        <v>0.08920236697874924</v>
+      </c>
+      <c r="P10">
+        <v>0.08920236697874924</v>
+      </c>
+      <c r="Q10">
+        <v>10.70464673436667</v>
+      </c>
+      <c r="R10">
+        <v>96.34182060929999</v>
+      </c>
+      <c r="S10">
+        <v>0.003495470457882413</v>
+      </c>
+      <c r="T10">
+        <v>0.003495470457882414</v>
       </c>
     </row>
   </sheetData>
